--- a/Tabla Error.xlsx
+++ b/Tabla Error.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,14 +478,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>@</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
@@ -526,14 +526,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -542,14 +542,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>@</t>
         </is>
       </c>
     </row>
@@ -558,14 +558,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>$</t>
         </is>
       </c>
     </row>
@@ -574,14 +574,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>”</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -590,14 +590,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>”</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
+        <v>146</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
         <v>150</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>12</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>@</t>
         </is>

--- a/Tabla Error.xlsx
+++ b/Tabla Error.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,14 +478,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
@@ -526,14 +526,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>@</t>
         </is>
       </c>
     </row>
@@ -542,14 +542,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>$</t>
         </is>
       </c>
     </row>
@@ -558,14 +558,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -574,14 +574,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>”</t>
         </is>
       </c>
     </row>
@@ -590,14 +590,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>”</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -606,28 +606,12 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>150</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="inlineStr">
         <is>
           <t>@</t>
         </is>

--- a/Tabla Error.xlsx
+++ b/Tabla Error.xlsx
@@ -690,7 +690,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -722,7 +722,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -743,7 +743,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -753,18 +753,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -774,18 +774,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -795,18 +795,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -827,7 +827,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>

--- a/Tabla Error.xlsx
+++ b/Tabla Error.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,14 +478,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t xml:space="preserve">	</t>
         </is>
       </c>
     </row>
@@ -494,14 +491,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
         <v>22</v>
       </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>@</t>
         </is>
       </c>
     </row>
@@ -510,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
@@ -526,14 +523,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -542,14 +539,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -558,14 +555,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>@</t>
         </is>
       </c>
     </row>
@@ -574,14 +571,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>”</t>
+          <t>$</t>
         </is>
       </c>
     </row>
@@ -590,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="C11" t="n">
         <v>7</v>
@@ -606,12 +603,44 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
+        <v>137</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>”</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>146</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
         <v>150</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C14" t="n">
         <v>12</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>@</t>
         </is>
@@ -690,18 +719,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -711,7 +740,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -722,7 +751,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -732,7 +761,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -743,7 +772,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -753,7 +782,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -764,7 +793,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -774,7 +803,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -785,7 +814,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -795,18 +824,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -816,18 +845,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -837,18 +866,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
     </row>

--- a/Tabla Error.xlsx
+++ b/Tabla Error.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,14 +491,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
@@ -523,7 +523,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
@@ -539,14 +539,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>@</t>
         </is>
       </c>
     </row>
@@ -555,14 +555,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>$</t>
         </is>
       </c>
     </row>
@@ -571,14 +571,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -587,14 +587,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>”</t>
         </is>
       </c>
     </row>
@@ -603,14 +603,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>”</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -619,28 +619,12 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>150</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="inlineStr">
         <is>
           <t>@</t>
         </is>
@@ -761,7 +745,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -772,7 +756,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -782,18 +766,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -807,7 +791,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -828,7 +812,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -845,18 +829,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -866,18 +850,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>fin</t>
         </is>
       </c>
     </row>

--- a/Tabla Error.xlsx
+++ b/Tabla Error.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>﻿</t>
+          <t>!</t>
         </is>
       </c>
     </row>
@@ -462,14 +462,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>%</t>
         </is>
       </c>
     </row>
@@ -478,11 +478,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">	</t>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -491,14 +495,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -507,14 +512,11 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -523,14 +525,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -539,14 +541,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -555,14 +557,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -571,14 +573,15 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -587,14 +590,11 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>137</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>”</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -603,14 +603,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>I</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -619,14 +619,205 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>34</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>43</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>43</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>?</t>
         </is>
       </c>
     </row>
@@ -641,7 +832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +873,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -693,7 +884,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -703,18 +894,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -724,18 +915,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -745,18 +936,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -766,18 +957,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -787,18 +978,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -808,18 +999,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -829,18 +1020,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -850,18 +1041,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -871,18 +1062,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
         <v>12</v>
       </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -892,18 +1083,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>estacIon</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -917,10 +1108,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -938,10 +1129,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -955,18 +1146,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -976,18 +1167,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -997,18 +1188,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -1018,18 +1209,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -1039,18 +1230,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1060,18 +1251,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>estacIon</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1081,18 +1272,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1102,18 +1293,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1123,18 +1314,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -1144,18 +1335,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -1165,18 +1356,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -1186,18 +1377,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1207,18 +1398,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1228,11 +1419,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>estacIon</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -1249,18 +1440,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
         <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1270,18 +1461,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1486,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
         <v>6</v>
@@ -1316,7 +1507,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
         <v>21</v>
@@ -1333,18 +1524,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
         <v>6</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1354,18 +1545,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1570,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D35" t="n">
         <v>3</v>
@@ -1396,18 +1587,18 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -1417,18 +1608,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1438,18 +1629,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1459,18 +1650,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -1480,18 +1671,18 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D40" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -1501,18 +1692,18 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1522,18 +1713,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1543,18 +1734,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>45</v>
-      </c>
-      <c r="D43" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -1564,18 +1752,18 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -1585,18 +1773,18 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1606,18 +1794,18 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>estacIon</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1627,18 +1815,18 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D47" t="n">
         <v>6</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -1648,18 +1836,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -1669,18 +1857,18 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -1690,18 +1878,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -1715,10 +1903,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1736,10 +1924,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1753,18 +1941,18 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
         <v>3</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1966,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
@@ -1795,18 +1983,18 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1816,18 +2004,18 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1841,7 +2029,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D57" t="n">
         <v>6</v>
@@ -1862,7 +2050,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D58" t="n">
         <v>14</v>
@@ -1883,7 +2071,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D59" t="n">
         <v>6</v>
@@ -1904,10 +2092,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1921,18 +2109,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1942,18 +2130,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1967,7 +2155,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D63" t="n">
         <v>3</v>
@@ -1988,7 +2176,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D64" t="n">
         <v>2</v>
@@ -2005,18 +2193,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D65" t="n">
         <v>6</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2026,18 +2214,18 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2047,18 +2235,18 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2068,18 +2256,18 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D68" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2089,18 +2277,18 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D69" t="n">
         <v>6</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2110,18 +2298,18 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2135,10 +2323,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2156,10 +2344,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2177,7 +2365,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
@@ -2198,10 +2386,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2219,7 +2407,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D75" t="n">
         <v>6</v>
@@ -2240,10 +2428,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2257,18 +2445,18 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2278,18 +2466,18 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2299,18 +2487,18 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D79" t="n">
         <v>6</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2320,18 +2508,18 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2341,18 +2529,18 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D81" t="n">
         <v>6</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2362,18 +2550,18 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D82" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2575,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D83" t="n">
         <v>3</v>
@@ -2408,7 +2596,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D84" t="n">
         <v>2</v>
@@ -2429,7 +2617,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D85" t="n">
         <v>6</v>
@@ -2450,10 +2638,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2467,18 +2655,18 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2488,18 +2676,18 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="D88" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2509,18 +2697,18 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D89" t="n">
         <v>6</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2530,18 +2718,18 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2551,18 +2739,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2572,18 +2760,18 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="D92" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2785,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="D93" t="n">
         <v>3</v>
@@ -2618,7 +2806,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
@@ -2639,10 +2827,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2660,10 +2848,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2677,18 +2865,18 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2698,18 +2886,18 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D98" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2719,18 +2907,18 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2740,18 +2928,18 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2761,18 +2949,18 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2782,18 +2970,18 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D102" t="n">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2807,434 +2995,14 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="D103" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>ruta</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ruta</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>132</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>ruta</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>133</v>
-      </c>
-      <c r="D105" t="n">
-        <v>6</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>135</v>
-      </c>
-      <c r="D106" t="n">
-        <v>7</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>136</v>
-      </c>
-      <c r="D107" t="n">
-        <v>6</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>136</v>
-      </c>
-      <c r="D108" t="n">
-        <v>14</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>137</v>
-      </c>
-      <c r="D109" t="n">
-        <v>6</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>139</v>
-      </c>
-      <c r="D110" t="n">
-        <v>7</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>140</v>
-      </c>
-      <c r="D111" t="n">
-        <v>6</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>142</v>
-      </c>
-      <c r="D112" t="n">
-        <v>7</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ruta</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>143</v>
-      </c>
-      <c r="D113" t="n">
-        <v>3</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>ruta</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>estacIon</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>146</v>
-      </c>
-      <c r="D114" t="n">
-        <v>2</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>estacion</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>147</v>
-      </c>
-      <c r="D115" t="n">
-        <v>6</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>147</v>
-      </c>
-      <c r="D116" t="n">
-        <v>21</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>148</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>148</v>
-      </c>
-      <c r="D118" t="n">
-        <v>28</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>149</v>
-      </c>
-      <c r="D119" t="n">
-        <v>6</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>149</v>
-      </c>
-      <c r="D120" t="n">
-        <v>22</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>estacion</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>150</v>
-      </c>
-      <c r="D121" t="n">
-        <v>3</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>estacion</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>153</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>153</v>
-      </c>
-      <c r="D123" t="n">
-        <v>23</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>nombre</t>
         </is>
       </c>
     </row>

--- a/Tabla Error.xlsx
+++ b/Tabla Error.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>!</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -462,14 +465,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>%</t>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -478,15 +482,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -495,15 +495,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -512,7 +511,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -525,10 +527,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -541,14 +543,15 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -557,10 +560,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -573,15 +573,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -590,7 +589,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -603,10 +605,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -619,14 +621,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -635,14 +637,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -654,11 +656,11 @@
         <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -670,12 +672,11 @@
         <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -684,11 +685,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -697,14 +701,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -713,14 +717,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>O</t>
         </is>
       </c>
     </row>
@@ -729,14 +733,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -745,7 +749,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -761,15 +765,14 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -778,14 +781,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -794,14 +797,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
         <v>5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&amp;</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -810,14 +813,840 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>50</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>51</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>51</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>51</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>51</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>51</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>51</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>52</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>52</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>52</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>52</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>52</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>52</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>53</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="C25" t="n">
-        <v>6</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>?</t>
+      <c r="B44" t="n">
+        <v>53</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>53</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>53</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>67</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>67</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>67</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>67</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>67</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>67</v>
+      </c>
+      <c r="C52" t="n">
+        <v>11</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>67</v>
+      </c>
+      <c r="C53" t="n">
+        <v>22</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>67</v>
+      </c>
+      <c r="C54" t="n">
+        <v>23</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>67</v>
+      </c>
+      <c r="C55" t="n">
+        <v>24</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>67</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>67</v>
+      </c>
+      <c r="C57" t="n">
+        <v>26</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>67</v>
+      </c>
+      <c r="C58" t="n">
+        <v>27</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>67</v>
+      </c>
+      <c r="C59" t="n">
+        <v>28</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>69</v>
+      </c>
+      <c r="C60" t="n">
+        <v>15</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>69</v>
+      </c>
+      <c r="C61" t="n">
+        <v>16</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>69</v>
+      </c>
+      <c r="C62" t="n">
+        <v>17</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>69</v>
+      </c>
+      <c r="C63" t="n">
+        <v>18</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>69</v>
+      </c>
+      <c r="C64" t="n">
+        <v>19</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>70</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>70</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>70</v>
+      </c>
+      <c r="C67" t="n">
+        <v>8</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>70</v>
+      </c>
+      <c r="C68" t="n">
+        <v>9</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>70</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>70</v>
+      </c>
+      <c r="C70" t="n">
+        <v>11</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="n">
+        <v>21</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>22</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>70</v>
+      </c>
+      <c r="C73" t="n">
+        <v>23</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>70</v>
+      </c>
+      <c r="C74" t="n">
+        <v>24</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>70</v>
+      </c>
+      <c r="C75" t="n">
+        <v>25</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>70</v>
+      </c>
+      <c r="C76" t="n">
+        <v>26</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>70</v>
+      </c>
+      <c r="C77" t="n">
+        <v>27</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -832,7 +1661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,14 +1702,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>estacIon</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -894,7 +1723,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -905,7 +1734,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -915,18 +1744,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -936,7 +1765,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -947,7 +1776,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -957,18 +1786,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -978,18 +1807,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -999,18 +1828,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -1024,10 +1853,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1045,7 +1874,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -1062,18 +1891,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1083,18 +1912,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1104,18 +1933,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1125,18 +1954,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1150,10 +1979,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1171,10 +2000,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1192,10 +2021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1213,10 +2042,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1234,10 +2063,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1255,10 +2084,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1276,10 +2105,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1297,10 +2126,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1318,10 +2147,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1339,10 +2168,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1360,10 +2189,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1377,18 +2206,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ESTACION</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -1402,10 +2231,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1419,18 +2248,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1444,7 +2273,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D29" t="n">
         <v>6</v>
@@ -1465,10 +2294,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D30" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1486,7 +2315,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
         <v>6</v>
@@ -1507,7 +2336,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D32" t="n">
         <v>21</v>
@@ -1524,18 +2353,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ESTACION</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -1545,18 +2374,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -1566,18 +2395,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1587,18 +2416,18 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1608,18 +2437,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -1629,18 +2458,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -1650,18 +2479,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -1671,18 +2500,18 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -1692,18 +2521,18 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1713,18 +2542,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1734,15 +2563,18 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -1756,7 +2588,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -1777,7 +2609,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>6</v>
@@ -1798,10 +2630,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1819,7 +2651,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D47" t="n">
         <v>6</v>
@@ -1840,7 +2672,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D48" t="n">
         <v>16</v>
@@ -1861,10 +2693,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1882,10 +2714,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D50" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1903,10 +2735,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D51" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1924,10 +2756,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D52" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1945,7 +2777,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D53" t="n">
         <v>3</v>
@@ -1962,18 +2794,18 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1983,18 +2815,18 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2004,18 +2836,18 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2025,18 +2857,18 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D57" t="n">
         <v>6</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2046,18 +2878,18 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D58" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2067,18 +2899,18 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D59" t="n">
         <v>6</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2088,18 +2920,18 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D60" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2109,18 +2941,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2130,18 +2962,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D62" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2151,18 +2983,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2172,18 +3004,18 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2193,18 +3025,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2214,18 +3046,18 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D66" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2239,10 +3071,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D67" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2260,7 +3092,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D68" t="n">
         <v>23</v>
@@ -2277,18 +3109,18 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D69" t="n">
         <v>6</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2298,18 +3130,18 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D70" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2319,18 +3151,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2340,18 +3172,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D72" t="n">
         <v>20</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2361,18 +3193,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2382,18 +3214,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2403,18 +3235,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2424,18 +3256,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D76" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2445,14 +3277,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>INICIO</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2466,14 +3298,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>INICIO</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D78" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2491,7 +3323,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D79" t="n">
         <v>6</v>
@@ -2512,10 +3344,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D80" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2533,7 +3365,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D81" t="n">
         <v>6</v>
@@ -2550,14 +3382,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>PESO</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D82" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2571,18 +3403,18 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>NOMBRE</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2592,18 +3424,18 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>NOMBRE</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2613,18 +3445,18 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2634,18 +3466,18 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D86" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2655,18 +3487,18 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2676,18 +3508,18 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D88" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2697,18 +3529,18 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2718,18 +3550,18 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D90" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -2743,7 +3575,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
@@ -2764,7 +3596,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D92" t="n">
         <v>14</v>
@@ -2781,18 +3613,18 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2802,18 +3634,18 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2823,184 +3655,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D95" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E95" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>68</v>
-      </c>
-      <c r="D96" t="n">
-        <v>23</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>68</v>
-      </c>
-      <c r="D97" t="n">
-        <v>31</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>68</v>
-      </c>
-      <c r="D98" t="n">
-        <v>45</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>68</v>
-      </c>
-      <c r="D99" t="n">
-        <v>53</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>68</v>
-      </c>
-      <c r="D100" t="n">
-        <v>63</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>68</v>
-      </c>
-      <c r="D101" t="n">
-        <v>68</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>68</v>
-      </c>
-      <c r="D102" t="n">
-        <v>76</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>ruta</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>68</v>
-      </c>
-      <c r="D103" t="n">
-        <v>83</v>
-      </c>
-      <c r="E103" t="inlineStr">
         <is>
           <t>ruta</t>
         </is>

--- a/Tabla Error.xlsx
+++ b/Tabla Error.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,9 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>﻿</t>
         </is>
       </c>
     </row>
@@ -465,15 +462,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-</t>
+          <t>@</t>
         </is>
       </c>
     </row>
@@ -482,11 +478,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">	</t>
         </is>
       </c>
     </row>
@@ -495,14 +491,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -511,14 +507,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -527,14 +523,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -543,15 +539,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-</t>
+          <t>@</t>
         </is>
       </c>
     </row>
@@ -560,11 +555,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>$</t>
         </is>
       </c>
     </row>
@@ -573,14 +571,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -589,14 +587,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>”</t>
         </is>
       </c>
     </row>
@@ -605,14 +603,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -621,1032 +619,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>21</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>21</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>21</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>21</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>21</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>21</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>25</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>25</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>25</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>25</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>7</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>25</v>
-      </c>
-      <c r="C28" t="n">
-        <v>9</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>25</v>
-      </c>
-      <c r="C29" t="n">
-        <v>10</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>50</v>
-      </c>
-      <c r="C30" t="n">
-        <v>6</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>51</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="n">
-        <v>51</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="n">
-        <v>51</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="n">
-        <v>51</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="n">
-        <v>51</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="n">
-        <v>51</v>
-      </c>
-      <c r="C36" t="n">
-        <v>6</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="n">
-        <v>52</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="n">
-        <v>52</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="n">
-        <v>52</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="n">
-        <v>52</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="n">
-        <v>52</v>
-      </c>
-      <c r="C41" t="n">
-        <v>9</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="n">
-        <v>52</v>
-      </c>
-      <c r="C42" t="n">
-        <v>11</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="n">
-        <v>53</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="n">
-        <v>53</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="n">
-        <v>53</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="n">
-        <v>53</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="n">
-        <v>67</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="n">
-        <v>67</v>
-      </c>
-      <c r="C48" t="n">
-        <v>7</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="n">
-        <v>67</v>
-      </c>
-      <c r="C49" t="n">
-        <v>8</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="n">
-        <v>67</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="n">
-        <v>67</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>67</v>
-      </c>
-      <c r="C52" t="n">
-        <v>11</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>67</v>
-      </c>
-      <c r="C53" t="n">
-        <v>22</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>67</v>
-      </c>
-      <c r="C54" t="n">
-        <v>23</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>67</v>
-      </c>
-      <c r="C55" t="n">
-        <v>24</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>67</v>
-      </c>
-      <c r="C56" t="n">
-        <v>25</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>67</v>
-      </c>
-      <c r="C57" t="n">
-        <v>26</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>67</v>
-      </c>
-      <c r="C58" t="n">
-        <v>27</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>67</v>
-      </c>
-      <c r="C59" t="n">
-        <v>28</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>69</v>
-      </c>
-      <c r="C60" t="n">
-        <v>15</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>69</v>
-      </c>
-      <c r="C61" t="n">
-        <v>16</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>69</v>
-      </c>
-      <c r="C62" t="n">
-        <v>17</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>69</v>
-      </c>
-      <c r="C63" t="n">
-        <v>18</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>69</v>
-      </c>
-      <c r="C64" t="n">
-        <v>19</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>70</v>
-      </c>
-      <c r="C65" t="n">
-        <v>6</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>70</v>
-      </c>
-      <c r="C66" t="n">
-        <v>7</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>70</v>
-      </c>
-      <c r="C67" t="n">
-        <v>8</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>70</v>
-      </c>
-      <c r="C68" t="n">
-        <v>9</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>70</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>70</v>
-      </c>
-      <c r="C70" t="n">
-        <v>11</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="n">
-        <v>21</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>70</v>
-      </c>
-      <c r="C72" t="n">
-        <v>22</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>70</v>
-      </c>
-      <c r="C73" t="n">
-        <v>23</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>70</v>
-      </c>
-      <c r="C74" t="n">
-        <v>24</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>70</v>
-      </c>
-      <c r="C75" t="n">
-        <v>25</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>70</v>
-      </c>
-      <c r="C76" t="n">
-        <v>26</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>70</v>
-      </c>
-      <c r="C77" t="n">
-        <v>27</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>E</t>
+          <t>@</t>
         </is>
       </c>
     </row>
@@ -1661,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,18 +682,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>estacIon</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -1730,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1748,10 +728,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1765,18 +745,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -1786,18 +766,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -1807,18 +787,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1828,18 +808,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1849,18 +829,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -1870,11 +850,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>estacIon</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -1895,7 +875,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
         <v>6</v>
@@ -1916,10 +896,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1937,7 +917,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -1958,7 +938,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
         <v>25</v>
@@ -1979,7 +959,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -2000,7 +980,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
         <v>21</v>
@@ -2021,7 +1001,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -2038,11 +1018,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>estacIon</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -2059,18 +1039,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
         <v>6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -2080,18 +1060,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -2101,18 +1081,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
         <v>6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2122,18 +1102,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2143,18 +1123,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
         <v>6</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -2164,18 +1144,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -2189,7 +1169,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
@@ -2206,11 +1186,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ESTACION</t>
+          <t>estacIon</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -2231,7 +1211,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -2252,10 +1232,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2269,18 +1249,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -2290,18 +1270,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -2311,18 +1291,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>6</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -2332,18 +1312,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -2353,11 +1333,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ESTACION</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
         <v>3</v>
@@ -2378,10 +1358,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2399,7 +1379,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
         <v>6</v>
@@ -2420,10 +1400,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D36" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2441,7 +1421,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
@@ -2462,10 +1442,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2483,7 +1463,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
@@ -2504,10 +1484,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2525,7 +1505,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
@@ -2546,10 +1526,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2567,7 +1547,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D43" t="n">
         <v>3</v>
@@ -2584,18 +1564,18 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacIon</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -2605,18 +1585,18 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D45" t="n">
         <v>6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -2626,18 +1606,18 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -2647,18 +1627,18 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D47" t="n">
         <v>6</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -2668,18 +1648,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D48" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -2689,18 +1669,18 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D49" t="n">
         <v>6</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2710,18 +1690,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D50" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2731,18 +1711,18 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -2752,18 +1732,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D52" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2773,18 +1753,18 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2798,10 +1778,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2815,18 +1795,18 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D55" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2836,18 +1816,18 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2861,7 +1841,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
         <v>6</v>
@@ -2882,10 +1862,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D58" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2903,7 +1883,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D59" t="n">
         <v>6</v>
@@ -2924,10 +1904,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2941,18 +1921,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2962,18 +1942,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2987,7 +1967,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
@@ -3008,10 +1988,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3025,18 +2005,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -3046,18 +2026,18 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -3071,7 +2051,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D67" t="n">
         <v>6</v>
@@ -3092,10 +2072,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D68" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3113,7 +2093,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D69" t="n">
         <v>6</v>
@@ -3134,10 +2114,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3151,18 +2131,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -3172,18 +2152,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -3197,7 +2177,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D73" t="n">
         <v>6</v>
@@ -3218,10 +2198,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3235,18 +2215,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -3256,18 +2236,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -3277,11 +2257,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>INICIO</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
@@ -3298,14 +2278,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>INICIO</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D78" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3323,7 +2303,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D79" t="n">
         <v>6</v>
@@ -3344,10 +2324,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D80" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3361,18 +2341,18 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -3382,18 +2362,18 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PESO</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D82" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -3403,11 +2383,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NOMBRE</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D83" t="n">
         <v>6</v>
@@ -3424,14 +2404,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NOMBRE</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D84" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3445,18 +2425,18 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -3466,18 +2446,18 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -3487,18 +2467,18 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -3508,18 +2488,18 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -3529,18 +2509,18 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -3550,18 +2530,18 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D90" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -3571,18 +2551,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -3592,18 +2572,18 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D92" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -3617,7 +2597,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D93" t="n">
         <v>6</v>
@@ -3638,10 +2618,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D94" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3655,18 +2635,564 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>peso</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>113</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>peso</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>peso</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>113</v>
+      </c>
+      <c r="D96" t="n">
+        <v>14</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>peso</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>114</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>inicio</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>116</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>inicio</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>117</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>119</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>ruta</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>79</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C101" t="n">
+        <v>120</v>
+      </c>
+      <c r="D101" t="n">
         <v>3</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>ruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ruta</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>129</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>ruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>130</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>132</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>peso</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>133</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>peso</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>peso</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>133</v>
+      </c>
+      <c r="D106" t="n">
+        <v>14</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>peso</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>134</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>inicio</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>136</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>inicio</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>137</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>139</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ruta</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>140</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>ruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>estacIon</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>143</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>estacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>144</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>144</v>
+      </c>
+      <c r="D114" t="n">
+        <v>21</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>145</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>145</v>
+      </c>
+      <c r="D116" t="n">
+        <v>28</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>146</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>146</v>
+      </c>
+      <c r="D118" t="n">
+        <v>22</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>estacion</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>147</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>estacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>150</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>150</v>
+      </c>
+      <c r="D121" t="n">
+        <v>23</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>nombre</t>
         </is>
       </c>
     </row>

--- a/Tabla Error.xlsx
+++ b/Tabla Error.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>﻿</t>
+          <t>!</t>
         </is>
       </c>
     </row>
@@ -462,14 +462,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>%</t>
         </is>
       </c>
     </row>
@@ -478,11 +478,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">	</t>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -491,14 +495,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -507,14 +512,11 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -523,14 +525,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -539,14 +541,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -555,14 +557,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -571,14 +573,15 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -587,14 +590,11 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>134</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>”</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -603,14 +603,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>I</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -619,14 +619,205 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>34</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>43</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>43</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>?</t>
         </is>
       </c>
     </row>
@@ -641,7 +832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +873,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -693,7 +884,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -703,18 +894,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -724,18 +915,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -745,18 +936,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -766,18 +957,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -787,18 +978,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -808,18 +999,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -829,18 +1020,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -850,11 +1041,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>estacIon</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -871,18 +1062,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -892,18 +1083,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -913,18 +1104,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -934,18 +1125,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -959,10 +1150,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -980,10 +1171,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1001,10 +1192,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1018,14 +1209,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>estacIon</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1039,18 +1230,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1060,18 +1251,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1081,18 +1272,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1102,18 +1293,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1123,18 +1314,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -1144,18 +1335,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -1169,10 +1360,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1186,18 +1377,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>estacIon</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1211,10 +1402,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1228,18 +1419,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -1249,18 +1440,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
         <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1270,18 +1461,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1291,18 +1482,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
         <v>6</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -1312,18 +1503,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -1333,18 +1524,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1354,18 +1545,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1375,18 +1566,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -1396,18 +1587,18 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -1417,18 +1608,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1438,18 +1629,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D38" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -1459,18 +1650,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -1480,18 +1671,18 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>color</t>
         </is>
       </c>
     </row>
@@ -1501,18 +1692,18 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1522,18 +1713,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1543,18 +1734,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacion</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>45</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>estacion</t>
         </is>
       </c>
     </row>
@@ -1564,18 +1752,18 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>estacIon</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -1585,18 +1773,18 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1606,18 +1794,18 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1627,18 +1815,18 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D47" t="n">
         <v>6</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -1648,18 +1836,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -1669,18 +1857,18 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -1690,18 +1878,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -1711,18 +1899,18 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>estacion</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1732,18 +1920,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1753,18 +1941,18 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -1774,18 +1962,18 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -1795,18 +1983,18 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1816,18 +2004,18 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D56" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -1837,18 +2025,18 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D57" t="n">
         <v>6</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -1858,18 +2046,18 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -1879,18 +2067,18 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D59" t="n">
         <v>6</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -1900,18 +2088,18 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>inicio</t>
         </is>
       </c>
     </row>
@@ -1921,18 +2109,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1942,18 +2130,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -1963,18 +2151,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -1984,18 +2172,18 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2197,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D65" t="n">
         <v>6</v>
@@ -2030,10 +2218,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D66" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2051,10 +2239,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2072,10 +2260,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2089,18 +2277,18 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D69" t="n">
         <v>6</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2110,18 +2298,18 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2131,18 +2319,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2152,18 +2340,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>fin</t>
         </is>
       </c>
     </row>
@@ -2173,18 +2361,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2194,18 +2382,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D74" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2215,18 +2403,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D75" t="n">
         <v>6</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2236,18 +2424,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D76" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2261,10 +2449,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2282,10 +2470,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D78" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2303,7 +2491,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D79" t="n">
         <v>6</v>
@@ -2324,10 +2512,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2341,18 +2529,18 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2362,18 +2550,18 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2383,18 +2571,18 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2404,18 +2592,18 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2425,18 +2613,18 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D85" t="n">
         <v>6</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2446,18 +2634,18 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D86" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2659,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -2492,10 +2680,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2513,7 +2701,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D89" t="n">
         <v>6</v>
@@ -2534,10 +2722,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2551,18 +2739,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2572,18 +2760,18 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2593,18 +2781,18 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2614,18 +2802,18 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D94" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
     </row>
@@ -2635,18 +2823,18 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2656,18 +2844,18 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D96" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>nombre</t>
         </is>
       </c>
     </row>
@@ -2681,10 +2869,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2702,10 +2890,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2723,10 +2911,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2744,10 +2932,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2761,18 +2949,18 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2782,18 +2970,18 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
@@ -2803,396 +2991,18 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>132</v>
-      </c>
-      <c r="D104" t="n">
-        <v>7</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>133</v>
-      </c>
-      <c r="D105" t="n">
-        <v>6</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>133</v>
-      </c>
-      <c r="D106" t="n">
-        <v>14</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>134</v>
-      </c>
-      <c r="D107" t="n">
-        <v>6</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>136</v>
-      </c>
-      <c r="D108" t="n">
-        <v>7</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>inicio</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>137</v>
-      </c>
-      <c r="D109" t="n">
-        <v>6</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>139</v>
-      </c>
-      <c r="D110" t="n">
-        <v>7</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
           <t>ruta</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>140</v>
-      </c>
-      <c r="D111" t="n">
-        <v>3</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>ruta</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>estacIon</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>143</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>estacion</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>144</v>
-      </c>
-      <c r="D113" t="n">
-        <v>6</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>144</v>
-      </c>
-      <c r="D114" t="n">
-        <v>21</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>145</v>
-      </c>
-      <c r="D115" t="n">
-        <v>6</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>145</v>
-      </c>
-      <c r="D116" t="n">
-        <v>28</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>146</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>146</v>
-      </c>
-      <c r="D118" t="n">
-        <v>22</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>estacion</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>147</v>
-      </c>
-      <c r="D119" t="n">
-        <v>3</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>estacion</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>150</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>150</v>
-      </c>
-      <c r="D121" t="n">
-        <v>23</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>nombre</t>
         </is>
       </c>
     </row>

--- a/Tabla Error.xlsx
+++ b/Tabla Error.xlsx
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
